--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/18/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/18/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6006006006006006</v>
+        <v>0.8118811881188119</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1839.83983983984</v>
+        <v>1971.117111711171</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06776776776776777</v>
+        <v>0.0828982898289829</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2122122122122122</v>
+        <v>0.7595759575957596</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1921.921921921922</v>
+        <v>1113.181318131813</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.3253253253254</v>
+        <v>843.6543654365437</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.003003003003003</v>
+        <v>992.6066606660665</v>
       </c>
     </row>
   </sheetData>
